--- a/data/trans_dic/P34B04_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.01974994551674675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.02819033793966002</v>
+        <v>0.02819033793966001</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.002080599441607112</v>
@@ -655,7 +655,7 @@
         <v>0.001968058067360512</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.006380690910963822</v>
+        <v>0.00638069091096382</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.008552027443593291</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01033039215205078</v>
+        <v>0.0104224198552641</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0107380379217229</v>
+        <v>0.0105200335059151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01309215981107502</v>
+        <v>0.01510221014902798</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002970705110407827</v>
+        <v>0.002913708378773463</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005590706196164026</v>
+        <v>0.005155767125173768</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005786446122512503</v>
+        <v>0.005542348458061642</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008943460604418889</v>
+        <v>0.009378470224520832</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02755422177659822</v>
+        <v>0.02765532036582815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03156120359565203</v>
+        <v>0.03203767477899526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05371498216184941</v>
+        <v>0.06149037660497828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.007179010073423595</v>
+        <v>0.008005426170241747</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.005932937837948957</v>
+        <v>0.006936575614460297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01193507037624013</v>
+        <v>0.01269613980305155</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01329840656476173</v>
+        <v>0.01310582668313918</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01550879925661868</v>
+        <v>0.01519194746214761</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0269417768586261</v>
+        <v>0.02799794584295335</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08084924503182703</v>
+        <v>0.08091929900140718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0620425437447048</v>
+        <v>0.06212387771338591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07901160851220594</v>
+        <v>0.07838569410990193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004544046245744536</v>
+        <v>0.004656593680037388</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01066920557754778</v>
+        <v>0.01071009833289059</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01474543402453994</v>
+        <v>0.01499706689270904</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04709605657160358</v>
+        <v>0.04710782006807574</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03833185256953554</v>
+        <v>0.03883243139146148</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04822069203602405</v>
+        <v>0.0489259402340509</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1073230151909651</v>
+        <v>0.1079454855313771</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08626924893648392</v>
+        <v>0.08479550726403866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1123806175926042</v>
+        <v>0.1099910654215377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01298991598324311</v>
+        <v>0.01349963723209023</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02162494257569406</v>
+        <v>0.02156819847902639</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0285619730969984</v>
+        <v>0.02832770512883145</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06220048616661802</v>
+        <v>0.06377132713508596</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05131014029115779</v>
+        <v>0.05255878591064347</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06649455239274162</v>
+        <v>0.06645897461248783</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.0217628149984073</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.02338623561627674</v>
+        <v>0.02338623561627673</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.0650909511050296</v>
@@ -882,7 +882,7 @@
         <v>0.05333821812865438</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.07476627558492763</v>
+        <v>0.07476627558492764</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07996244089119466</v>
+        <v>0.07837799312258294</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06233185745286599</v>
+        <v>0.05973758742022153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1014441615028246</v>
+        <v>0.09998193543702524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009202084445271713</v>
+        <v>0.009470519825282429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01242491754089634</v>
+        <v>0.01247456613476185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01549805209359887</v>
+        <v>0.01554822294799548</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05025137355824393</v>
+        <v>0.04975673237385304</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04012757606604776</v>
+        <v>0.04072952196143296</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05991303160471254</v>
+        <v>0.06040058921231998</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1372999246468611</v>
+        <v>0.1362512849344026</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1094372570783727</v>
+        <v>0.1112460109227329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1686828646202101</v>
+        <v>0.1597370161368788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04276711700650669</v>
+        <v>0.04502465570483193</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03828829343363233</v>
+        <v>0.03629281667767317</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03458504321147095</v>
+        <v>0.03482804646788543</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08394456134519657</v>
+        <v>0.08242383654028683</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06860806333959364</v>
+        <v>0.06827182324593387</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09289468112653781</v>
+        <v>0.09212100792371962</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.06321807158164885</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08920170990940109</v>
+        <v>0.0892017099094011</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.007814229449474743</v>
@@ -991,7 +991,7 @@
         <v>0.03739228969562248</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.0527280010977853</v>
+        <v>0.05272800109778532</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06506357197275245</v>
+        <v>0.06538497897169943</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0544647751659532</v>
+        <v>0.0557419808825352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0773253927972198</v>
+        <v>0.07792762681564279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005050473872648465</v>
+        <v>0.004864409044980531</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009338164467642287</v>
+        <v>0.009551797756730276</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01409393618311735</v>
+        <v>0.01374648154263629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03577344038554731</v>
+        <v>0.03588092778554761</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03310016266565417</v>
+        <v>0.03316124757234441</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04671497184955027</v>
+        <v>0.0464337773014049</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08439101965442972</v>
+        <v>0.08373198233149443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07178530347490109</v>
+        <v>0.07258604378323535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1026430987087106</v>
+        <v>0.1032085268731994</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01133202135204374</v>
+        <v>0.01113882572731728</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01651535738002713</v>
+        <v>0.01668219940137144</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02345797989639848</v>
+        <v>0.022753748901542</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04538247833206549</v>
+        <v>0.04557709009673438</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04241369545741198</v>
+        <v>0.04227994676832982</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05989276515582047</v>
+        <v>0.0603539349821605</v>
       </c>
     </row>
     <row r="16">
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10047</v>
+        <v>10137</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8100</v>
+        <v>7936</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7574</v>
+        <v>8737</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2438</v>
+        <v>2391</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12917</v>
+        <v>11912</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10121</v>
+        <v>9694</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12514</v>
+        <v>13123</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26799</v>
+        <v>26897</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23808</v>
+        <v>24168</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31076</v>
+        <v>35574</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9604</v>
+        <v>10710</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5901</v>
+        <v>6900</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9795</v>
+        <v>10420</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30724</v>
+        <v>30279</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27125</v>
+        <v>26571</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37698</v>
+        <v>39175</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>158784</v>
+        <v>158922</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>128824</v>
+        <v>128993</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>176155</v>
+        <v>174760</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7979</v>
+        <v>8177</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21214</v>
+        <v>21295</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31978</v>
+        <v>32523</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>175191</v>
+        <v>175235</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>155807</v>
+        <v>157842</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>212081</v>
+        <v>215183</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>210778</v>
+        <v>212000</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>179128</v>
+        <v>176068</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>250551</v>
+        <v>245223</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22809</v>
+        <v>23704</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42997</v>
+        <v>42884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>61941</v>
+        <v>61433</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>231377</v>
+        <v>237221</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>208560</v>
+        <v>213635</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>292452</v>
+        <v>292296</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38476</v>
+        <v>37714</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34088</v>
+        <v>32670</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72186</v>
+        <v>71146</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4220</v>
+        <v>4343</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6823</v>
+        <v>6850</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11368</v>
+        <v>11405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>47227</v>
+        <v>46762</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43981</v>
+        <v>44641</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>86581</v>
+        <v>87286</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>66066</v>
+        <v>65562</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59850</v>
+        <v>60839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>120033</v>
+        <v>113667</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19614</v>
+        <v>20650</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21026</v>
+        <v>19930</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25369</v>
+        <v>25547</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>78892</v>
+        <v>77463</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>75196</v>
+        <v>74828</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134243</v>
+        <v>133125</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>222369</v>
+        <v>223467</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>183961</v>
+        <v>188275</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>272155</v>
+        <v>274274</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17941</v>
+        <v>17280</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32983</v>
+        <v>33738</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>52470</v>
+        <v>51176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>249343</v>
+        <v>250092</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>228713</v>
+        <v>229135</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>338332</v>
+        <v>336295</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>288424</v>
+        <v>286172</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>242463</v>
+        <v>245168</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>361263</v>
+        <v>363253</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40255</v>
+        <v>39569</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58334</v>
+        <v>58923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87331</v>
+        <v>84709</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>316318</v>
+        <v>317675</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>293067</v>
+        <v>292143</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>433772</v>
+        <v>437112</v>
       </c>
     </row>
     <row r="20">
